--- a/materials/HTS_GEO_submission_template.xlsx
+++ b/materials/HTS_GEO_submission_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/princess/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/princess/Documents/GitHub/Intro-to-rnaseq/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B271506-EE46-424E-A261-915E9A53F2C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E5590C-249C-7C47-B735-E4A977316724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31580" yWindow="2420" windowWidth="31020" windowHeight="21580" xr2:uid="{94DD6188-94F3-1540-B003-259D40E2D746}"/>
+    <workbookView xWindow="31580" yWindow="2420" windowWidth="31020" windowHeight="21580" activeTab="1" xr2:uid="{94DD6188-94F3-1540-B003-259D40E2D746}"/>
   </bookViews>
   <sheets>
     <sheet name="EXAMPLE " sheetId="1" r:id="rId1"/>
@@ -1320,7 +1320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{04959AF6-17D0-9048-9AA5-077B4C9D8739}">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{E7B8DB4E-0791-644F-9EC5-FC494043C91F}">
       <text>
         <r>
           <rPr>
@@ -1330,13 +1330,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>"Firstname,Initial,Lastname".
-Example: "John,H,Smith" or "Jane,Doe". 
-Each contributor on a separate line, add as many contributor lines as required.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{29A87462-E02D-F04F-8769-A15DDAB163CB}">
+          <t>An arbitrary and unique identifier for each sample. This information will not appear in the final records and is only used as an internal reference. Each row represents a GEO Sample record.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{5D42A2C8-44CC-F440-8757-D867FFC4158F}">
       <text>
         <r>
           <rPr>
@@ -1346,13 +1344,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>"Firstname,Initial,Lastname".
-Example: "John,H,Smith" or "Jane,Doe". 
-Each contributor on a separate line, add as many contributor lines as required.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{BB00A898-97BF-2D43-B790-78BD86EFFB22}">
+          <t xml:space="preserve">Unique title that describes the Sample. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{72E370E8-32BC-2F4F-9990-8B9C059C03A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Briefly identify the biological material e.g., vastus lateralis muscle.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{8BD29702-FDFE-054F-ADDB-8BA4552FA43B}">
       <text>
         <r>
           <rPr>
@@ -1362,12 +1372,53 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>[optional] 
-If you submit a matrix table containing processed data for all samples, include the file name here.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{E7B8DB4E-0791-644F-9EC5-FC494043C91F}">
+          <t>Identify the organism(s) from which the sequences were derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{4ACB3AD9-94DD-8043-A24A-67D9BD8F4D79}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Replace 'tag' with a biosource characteristic (e.g. "strain", "tissue", "developmental stage", "tumor stage", etc), and then enter the value for each sample beneath (e.g. "129SV", "brain", "embryo", etc). You may add multiple characteristics columns to this template (see 'Metadata Example' spreadsheet).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{796BB2AD-7030-E844-AF64-9D5F3829AD5A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Replace 'tag' with a biosource characteristic (e.g. "strain", "tissue", "developmental stage", "tumor stage", etc), and then enter the value for each sample beneath (e.g. "129SV", "brain", "embryo", etc). You may add multiple characteristics columns to this template (see 'Metadata Example' spreadsheet).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{3CE39FAB-050A-EC4C-B507-E7EF308E7E7E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Replace 'tag' with a biosource characteristic (e.g. "strain", "tissue", "developmental stage", "tumor stage", etc), and then enter the value for each sample beneath (e.g. "129SV", "brain", "embryo", etc). You may add multiple characteristics columns to this template (see 'Metadata Example' spreadsheet).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{D3C67ED9-B176-6E4C-8B84-EE962D32A2BE}">
       <text>
         <r>
           <rPr>
@@ -1377,109 +1428,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>An arbitrary and unique identifier for each sample. This information will not appear in the final records and is only used as an internal reference. Each row represents a GEO Sample record.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{5D42A2C8-44CC-F440-8757-D867FFC4158F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Unique title that describes the Sample. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{72E370E8-32BC-2F4F-9990-8B9C059C03A2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Briefly identify the biological material e.g., vastus lateralis muscle.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{8BD29702-FDFE-054F-ADDB-8BA4552FA43B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Identify the organism(s) from which the sequences were derived.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{4ACB3AD9-94DD-8043-A24A-67D9BD8F4D79}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Replace 'tag' with a biosource characteristic (e.g. "strain", "tissue", "developmental stage", "tumor stage", etc), and then enter the value for each sample beneath (e.g. "129SV", "brain", "embryo", etc). You may add multiple characteristics columns to this template (see 'Metadata Example' spreadsheet).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{796BB2AD-7030-E844-AF64-9D5F3829AD5A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Replace 'tag' with a biosource characteristic (e.g. "strain", "tissue", "developmental stage", "tumor stage", etc), and then enter the value for each sample beneath (e.g. "129SV", "brain", "embryo", etc). You may add multiple characteristics columns to this template (see 'Metadata Example' spreadsheet).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{3CE39FAB-050A-EC4C-B507-E7EF308E7E7E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Replace 'tag' with a biosource characteristic (e.g. "strain", "tissue", "developmental stage", "tumor stage", etc), and then enter the value for each sample beneath (e.g. "129SV", "brain", "embryo", etc). You may add multiple characteristics columns to this template (see 'Metadata Example' spreadsheet).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{D3C67ED9-B176-6E4C-8B84-EE962D32A2BE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>Type of molecule that was extracted from the biological material. Include one of the following: total RNA, polyA RNA, cytoplasmic RNA, nuclear RNA, genomic DNA, protein, or other.</t>
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{97FCF9E5-B376-9941-9BF9-11A4E19936BB}">
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{97FCF9E5-B376-9941-9BF9-11A4E19936BB}">
       <text>
         <r>
           <rPr>
@@ -1494,7 +1447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M23" authorId="0" shapeId="0" xr:uid="{83E70163-9EDA-F441-B978-EB7B7ECEC7D3}">
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{83E70163-9EDA-F441-B978-EB7B7ECEC7D3}">
       <text>
         <r>
           <rPr>
@@ -1509,7 +1462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N23" authorId="0" shapeId="0" xr:uid="{3EC4EE82-E205-EF4A-A7EC-FC8E2CA8673E}">
+    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{3EC4EE82-E205-EF4A-A7EC-FC8E2CA8673E}">
       <text>
         <r>
           <rPr>
@@ -1525,7 +1478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{AEBDFBD8-73A0-0F48-A14E-18906523770D}">
+    <comment ref="O20" authorId="0" shapeId="0" xr:uid="{AEBDFBD8-73A0-0F48-A14E-18906523770D}">
       <text>
         <r>
           <rPr>
@@ -1541,7 +1494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{DA964C1D-4FA2-F74D-BD61-6865E3E7F595}">
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{DA964C1D-4FA2-F74D-BD61-6865E3E7F595}">
       <text>
         <r>
           <rPr>
@@ -1555,7 +1508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{E182FD6F-C53E-8E4D-9219-6D4C970DC58E}">
+    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{E182FD6F-C53E-8E4D-9219-6D4C970DC58E}">
       <text>
         <r>
           <rPr>
@@ -1569,7 +1522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{79DCFCD2-B95D-C04C-AA72-30780C783F20}">
+    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{79DCFCD2-B95D-C04C-AA72-30780C783F20}">
       <text>
         <r>
           <rPr>
@@ -1583,7 +1536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{73617149-3F6D-724E-B2B9-E9489D790C8F}">
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{73617149-3F6D-724E-B2B9-E9489D790C8F}">
       <text>
         <r>
           <rPr>
@@ -1597,7 +1550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="1" shapeId="0" xr:uid="{8B5AC80C-E605-F642-9672-90FA363ADF4A}">
+    <comment ref="A32" authorId="1" shapeId="0" xr:uid="{8B5AC80C-E605-F642-9672-90FA363ADF4A}">
       <text>
         <r>
           <rPr>
@@ -1635,7 +1588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{4429DE9D-42E1-D445-9D09-7E0A1A7BF4C7}">
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{4429DE9D-42E1-D445-9D09-7E0A1A7BF4C7}">
       <text>
         <r>
           <rPr>
@@ -1655,7 +1608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{AFBDBAE0-408F-0C48-9A36-F33C7944AD16}">
+    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{AFBDBAE0-408F-0C48-9A36-F33C7944AD16}">
       <text>
         <r>
           <rPr>
@@ -1675,7 +1628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="0" shapeId="0" xr:uid="{C79DB3BC-18EA-0441-B1E0-D68CC089B932}">
+    <comment ref="A39" authorId="0" shapeId="0" xr:uid="{C79DB3BC-18EA-0441-B1E0-D68CC089B932}">
       <text>
         <r>
           <rPr>
@@ -1695,7 +1648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{FFCBE50F-FCB1-144F-B2B2-CA1EFDC2D74A}">
+    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{FFCBE50F-FCB1-144F-B2B2-CA1EFDC2D74A}">
       <text>
         <r>
           <rPr>
@@ -1715,7 +1668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0" shapeId="0" xr:uid="{148789A5-69C3-5D40-858D-4B669B35D5AA}">
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{148789A5-69C3-5D40-858D-4B669B35D5AA}">
       <text>
         <r>
           <rPr>
@@ -1735,7 +1688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{AA9EA18C-6DC8-AE4A-8337-172495ED0A86}">
+    <comment ref="A42" authorId="0" shapeId="0" xr:uid="{AA9EA18C-6DC8-AE4A-8337-172495ED0A86}">
       <text>
         <r>
           <rPr>
@@ -1750,7 +1703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{98D709ED-221A-364A-8B8A-35F31F51F702}">
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{98D709ED-221A-364A-8B8A-35F31F51F702}">
       <text>
         <r>
           <rPr>
@@ -1765,7 +1718,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{CFD05184-1773-F242-BB51-58AF11DC78BE}">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{CFD05184-1773-F242-BB51-58AF11DC78BE}">
       <text>
         <r>
           <rPr>
@@ -1779,7 +1732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{CC8AF669-7A8C-6B4E-A9C5-3669308741D0}">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{CC8AF669-7A8C-6B4E-A9C5-3669308741D0}">
       <text>
         <r>
           <rPr>
@@ -1794,7 +1747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{8820EECF-8ABA-CA43-9E91-BF0A39DA30BA}">
+    <comment ref="B57" authorId="0" shapeId="0" xr:uid="{8820EECF-8ABA-CA43-9E91-BF0A39DA30BA}">
       <text>
         <r>
           <rPr>
@@ -1821,7 +1774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{2E42B25B-1C80-414B-81BD-71FA79E7A306}">
+    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{2E42B25B-1C80-414B-81BD-71FA79E7A306}">
       <text>
         <r>
           <rPr>
@@ -2474,7 +2427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{5639C532-0C31-3745-BE18-CA0BA71C0591}">
+    <comment ref="D57" authorId="0" shapeId="0" xr:uid="{5639C532-0C31-3745-BE18-CA0BA71C0591}">
       <text>
         <r>
           <rPr>
@@ -2488,7 +2441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{DF43D66D-E50B-554D-9516-8B668945D4A6}">
+    <comment ref="E57" authorId="0" shapeId="0" xr:uid="{DF43D66D-E50B-554D-9516-8B668945D4A6}">
       <text>
         <r>
           <rPr>
@@ -2507,7 +2460,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="106">
   <si>
     <t>080718_BI-EAS49_2.fastq.gz</t>
   </si>
@@ -3187,9 +3140,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3510,7 +3463,7 @@
   </sheetPr>
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -3521,33 +3474,33 @@
     <col min="16" max="16384" width="37.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
+      <c r="A6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
@@ -3668,7 +3621,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3676,14 +3629,14 @@
       <c r="A22" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
@@ -4320,10 +4273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D81D7F-93FD-DD49-8732-3C84EB68F655}">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4333,33 +4286,33 @@
     <col min="16" max="16384" width="37.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
+      <c r="A6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
@@ -4426,104 +4379,113 @@
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="A15" s="11"/>
       <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
-        <v>89</v>
+      <c r="A16" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+    <row r="17" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
+    <row r="18" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
+    <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E20" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F20" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H20" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I20" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K20" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L20" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="13" t="s">
+      <c r="M20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="N20" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="O23" s="13" t="s">
+      <c r="O20" s="13" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C22"/>
+      <c r="E22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C23"/>
+      <c r="E23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C24"/>
       <c r="E24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -4531,128 +4493,128 @@
       <c r="J24"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C25"/>
-      <c r="E25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+      <c r="B25"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C26"/>
-      <c r="E26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C27"/>
-      <c r="E27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
+      <c r="A26" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B28"/>
+      <c r="A28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
-        <v>49</v>
+      <c r="A31" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="A32" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="A33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B40"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B41"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -4660,83 +4622,80 @@
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="9"/>
+      <c r="A45" s="7"/>
       <c r="C45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
+    <row r="46" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="7"/>
-      <c r="C48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-    </row>
-    <row r="49" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
+      <c r="A47" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
+    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="8"/>
-    </row>
-    <row r="58" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
+      <c r="C48" s="8"/>
+    </row>
+    <row r="55" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
@@ -4762,57 +4721,33 @@
       <c r="E63" s="1"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C64" s="5"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C65" s="5"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C68" s="5"/>
-    </row>
-    <row r="70" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4" t="s">
+    </row>
+    <row r="67" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="2" t="s">
+    <row r="69" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
